--- a/simulations/raw_inclusion_exclusion/van_de_Schoot_2017 IEC/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/van_de_Schoot_2017 IEC/output/tables/time_to_discovery/tds_sim.xlsx
@@ -422,10 +422,10 @@
         <v>53</v>
       </c>
       <c r="C3">
-        <v>1561</v>
+        <v>130</v>
       </c>
       <c r="D3">
-        <v>1561</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -444,10 +444,10 @@
         <v>118</v>
       </c>
       <c r="C5">
-        <v>1519</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>1519</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -466,10 +466,10 @@
         <v>464</v>
       </c>
       <c r="C7">
-        <v>1502</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>1502</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -488,10 +488,10 @@
         <v>732</v>
       </c>
       <c r="C9">
-        <v>1581</v>
+        <v>138</v>
       </c>
       <c r="D9">
-        <v>1581</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -510,10 +510,10 @@
         <v>769</v>
       </c>
       <c r="C11">
-        <v>1488</v>
+        <v>105</v>
       </c>
       <c r="D11">
-        <v>1488</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -532,10 +532,10 @@
         <v>833</v>
       </c>
       <c r="C13">
-        <v>1512</v>
+        <v>106</v>
       </c>
       <c r="D13">
-        <v>1512</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -554,10 +554,10 @@
         <v>904</v>
       </c>
       <c r="C15">
-        <v>1455</v>
+        <v>86</v>
       </c>
       <c r="D15">
-        <v>1455</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -576,10 +576,10 @@
         <v>955</v>
       </c>
       <c r="C17">
-        <v>1511</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>1511</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -598,10 +598,10 @@
         <v>1035</v>
       </c>
       <c r="C19">
-        <v>1557</v>
+        <v>120</v>
       </c>
       <c r="D19">
-        <v>1557</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -620,10 +620,10 @@
         <v>1182</v>
       </c>
       <c r="C21">
-        <v>1554</v>
+        <v>121</v>
       </c>
       <c r="D21">
-        <v>1554</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -642,10 +642,10 @@
         <v>1250</v>
       </c>
       <c r="C23">
-        <v>1546</v>
+        <v>112</v>
       </c>
       <c r="D23">
-        <v>1546</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -664,10 +664,10 @@
         <v>1358</v>
       </c>
       <c r="C25">
-        <v>1539</v>
+        <v>70</v>
       </c>
       <c r="D25">
-        <v>1539</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -686,10 +686,10 @@
         <v>1431</v>
       </c>
       <c r="C27">
-        <v>1732</v>
+        <v>189</v>
       </c>
       <c r="D27">
-        <v>1732</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -708,10 +708,10 @@
         <v>1516</v>
       </c>
       <c r="C29">
-        <v>1595</v>
+        <v>131</v>
       </c>
       <c r="D29">
-        <v>1595</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -719,10 +719,10 @@
         <v>1556</v>
       </c>
       <c r="C30">
-        <v>1533</v>
+        <v>119</v>
       </c>
       <c r="D30">
-        <v>1533</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -741,10 +741,10 @@
         <v>1567</v>
       </c>
       <c r="C32">
-        <v>1434</v>
+        <v>261</v>
       </c>
       <c r="D32">
-        <v>1434</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -763,10 +763,10 @@
         <v>1748</v>
       </c>
       <c r="C34">
-        <v>1457</v>
+        <v>88</v>
       </c>
       <c r="D34">
-        <v>1457</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -785,10 +785,10 @@
         <v>1883</v>
       </c>
       <c r="C36">
-        <v>1482</v>
+        <v>176</v>
       </c>
       <c r="D36">
-        <v>1482</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -807,10 +807,10 @@
         <v>1996</v>
       </c>
       <c r="C38">
-        <v>1518</v>
+        <v>38</v>
       </c>
       <c r="D38">
-        <v>1518</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -829,10 +829,10 @@
         <v>2281</v>
       </c>
       <c r="C40">
-        <v>1556</v>
+        <v>117</v>
       </c>
       <c r="D40">
-        <v>1556</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -851,10 +851,10 @@
         <v>2498</v>
       </c>
       <c r="C42">
-        <v>1504</v>
+        <v>41</v>
       </c>
       <c r="D42">
-        <v>1504</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -873,10 +873,10 @@
         <v>2547</v>
       </c>
       <c r="C44">
-        <v>1478</v>
+        <v>92</v>
       </c>
       <c r="D44">
-        <v>1478</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -895,10 +895,10 @@
         <v>2626</v>
       </c>
       <c r="C46">
-        <v>1522</v>
+        <v>95</v>
       </c>
       <c r="D46">
-        <v>1522</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -917,10 +917,10 @@
         <v>2742</v>
       </c>
       <c r="C48">
-        <v>1575</v>
+        <v>149</v>
       </c>
       <c r="D48">
-        <v>1575</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -939,10 +939,10 @@
         <v>2805</v>
       </c>
       <c r="C50">
-        <v>1617</v>
+        <v>73</v>
       </c>
       <c r="D50">
-        <v>1617</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -961,10 +961,10 @@
         <v>3078</v>
       </c>
       <c r="C52">
-        <v>1537</v>
+        <v>69</v>
       </c>
       <c r="D52">
-        <v>1537</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -983,10 +983,10 @@
         <v>3316</v>
       </c>
       <c r="C54">
-        <v>1550</v>
+        <v>155</v>
       </c>
       <c r="D54">
-        <v>1550</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1005,10 +1005,10 @@
         <v>3444</v>
       </c>
       <c r="C56">
-        <v>1905</v>
+        <v>693</v>
       </c>
       <c r="D56">
-        <v>1905</v>
+        <v>693</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1027,10 +1027,10 @@
         <v>3610</v>
       </c>
       <c r="C58">
-        <v>1553</v>
+        <v>118</v>
       </c>
       <c r="D58">
-        <v>1553</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1049,10 +1049,10 @@
         <v>3682</v>
       </c>
       <c r="C60">
-        <v>1442</v>
+        <v>76</v>
       </c>
       <c r="D60">
-        <v>1442</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1071,10 +1071,10 @@
         <v>3771</v>
       </c>
       <c r="C62">
-        <v>1472</v>
+        <v>83</v>
       </c>
       <c r="D62">
-        <v>1472</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1093,10 +1093,10 @@
         <v>3844</v>
       </c>
       <c r="C64">
-        <v>1509</v>
+        <v>72</v>
       </c>
       <c r="D64">
-        <v>1509</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1115,10 +1115,10 @@
         <v>4156</v>
       </c>
       <c r="C66">
-        <v>1446</v>
+        <v>78</v>
       </c>
       <c r="D66">
-        <v>1446</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1137,10 +1137,10 @@
         <v>4203</v>
       </c>
       <c r="C68">
-        <v>1577</v>
+        <v>124</v>
       </c>
       <c r="D68">
-        <v>1577</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1159,10 +1159,10 @@
         <v>4271</v>
       </c>
       <c r="C70">
-        <v>1531</v>
+        <v>114</v>
       </c>
       <c r="D70">
-        <v>1531</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1181,10 +1181,10 @@
         <v>4329</v>
       </c>
       <c r="C72">
-        <v>1559</v>
+        <v>62</v>
       </c>
       <c r="D72">
-        <v>1559</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1203,10 +1203,10 @@
         <v>4379</v>
       </c>
       <c r="C74">
-        <v>1529</v>
+        <v>45</v>
       </c>
       <c r="D74">
-        <v>1529</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1225,10 +1225,10 @@
         <v>4463</v>
       </c>
       <c r="C76">
-        <v>1459</v>
+        <v>80</v>
       </c>
       <c r="D76">
-        <v>1459</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1239,7 +1239,7 @@
         <v>91.02702702702703</v>
       </c>
       <c r="C77">
-        <v>1536.763157894737</v>
+        <v>116.5</v>
       </c>
     </row>
   </sheetData>
